--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rayanhaq/PycharmProjects/cs151-pa1-rayanhaq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BBD373-9C1A-854B-973C-DB904E15F6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="2300" yWindow="3020" windowWidth="29400" windowHeight="16660" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,18 +34,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>You need to create your own tests</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>User age not between 20-40</t>
+  </si>
+  <si>
+    <t>Age &lt; 20 or Age &gt; 40</t>
+  </si>
+  <si>
+    <t>'You are not eligible to enter the mansion.'</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>User age between 20-40</t>
+  </si>
+  <si>
+    <t>Age = 25</t>
+  </si>
+  <si>
+    <t>'You are eligible to go in the haunted mansion. Do you want to go in? (yes/no)'</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>User declines to enter mansion</t>
+  </si>
+  <si>
+    <t>Response = 'no'</t>
+  </si>
+  <si>
+    <t>'Are you scared to go in? (yes/no)'</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>User confirms they are scared</t>
+  </si>
+  <si>
+    <t>Response = 'yes'</t>
+  </si>
+  <si>
+    <t>'You can leave.'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>User chooses to go in</t>
+  </si>
+  <si>
+    <t>'There are three doors to go in. Choose one: Door one, Door two, Door three.'</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>User chooses Door 1</t>
+  </si>
+  <si>
+    <t>Choice = 1</t>
+  </si>
+  <si>
+    <t>'You have reached a bridge. Only the brave can jump. Will you jump? (yes/no)'</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>User jumps</t>
+  </si>
+  <si>
+    <t>'Congratulations! There is gold at the end of the trail, but you must answer these three questions.'</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>User answers all questions correctly</t>
+  </si>
+  <si>
+    <t>5*5=25, 6*6=36, 7*7=49</t>
+  </si>
+  <si>
+    <t>'You have earned 100 gold!'</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>User answers incorrectly</t>
+  </si>
+  <si>
+    <t>Any answer incorrect</t>
+  </si>
+  <si>
+    <t>'Wrong answers! You are sent back to the beginning.'</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>User does not jump</t>
+  </si>
+  <si>
+    <t>'You can go back to the intro.'</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>User chooses Door 2</t>
+  </si>
+  <si>
+    <t>Choice = 2</t>
+  </si>
+  <si>
+    <t>'You have reached a dead end.'</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>User chooses Door 3</t>
+  </si>
+  <si>
+    <t>Choice = 3</t>
+  </si>
+  <si>
+    <t>'You have reached a diamond mountain. Do you wish to climb it? (yes/no)'</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>User climbs mountain</t>
+  </si>
+  <si>
+    <t>'Congratulations on making it to the top of the mountain! Look at the amazing view.'</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>User declines to climb mountain</t>
+  </si>
+  <si>
+    <t>'Go to exit screen.'</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -60,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,14 +241,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -95,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,22 +582,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="4" width="0.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="38.83203125" customWidth="1"/>
+    <col min="13" max="13" width="46.33203125" customWidth="1"/>
+    <col min="14" max="14" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+    </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>15</v>
+      </c>
+      <c r="N27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" t="s">
+        <v>47</v>
+      </c>
+      <c r="M35" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
